--- a/Survey Notes.xlsx
+++ b/Survey Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALIENWARE\Desktop\User Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA81B55-D430-4D6C-9312-599F54A66AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE556BF-097F-4E09-8A60-5EEE34F05DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B17A0EF-BFDC-4156-9C0F-8044A3D6F645}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Participant ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +182,6 @@
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,9 +287,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,7 +617,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.2"/>
@@ -655,16 +651,16 @@
       <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="1">
         <v>1</v>
       </c>
@@ -893,22 +889,22 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f>ROUND(AVERAGE(F2:F9), 2)</f>
         <v>3.32</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f>ROUND(AVERAGE(G2:G9), 2)</f>
         <v>4.16</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f>ROUND(AVERAGE(H2:H9), 2)</f>
         <v>3.85</v>
       </c>
@@ -973,58 +969,58 @@
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
